--- a/tables/remainder/activity.xlsx
+++ b/tables/remainder/activity.xlsx
@@ -22,19 +22,19 @@
     <t>%</t>
   </si>
   <si>
+    <t>With a large group of friends (more than 5 people)</t>
+  </si>
+  <si>
     <t>With a small group of friends (up to 5 persons)</t>
   </si>
   <si>
+    <t>With children</t>
+  </si>
+  <si>
+    <t>Alone or with pets</t>
+  </si>
+  <si>
     <t>With partner or friend (two adults)</t>
-  </si>
-  <si>
-    <t>Alone or with pets</t>
-  </si>
-  <si>
-    <t>With a large group of friends (more than 5 people)</t>
-  </si>
-  <si>
-    <t>With children</t>
   </si>
   <si>
     <t>Others</t>
@@ -414,10 +414,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>25.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -425,10 +425,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>204</v>
+        <v>141</v>
       </c>
       <c r="C3">
-        <v>36.2</v>
+        <v>25.7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -436,10 +436,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="C4">
-        <v>26.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,10 +447,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="C5">
-        <v>5.3</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -458,10 +458,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>39</v>
+        <v>195</v>
       </c>
       <c r="C6">
-        <v>6.9</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="7" spans="1:3">
